--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -48,9 +48,6 @@
     <t>ZVP</t>
   </si>
   <si>
-    <t>Gaurangi</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Shardul</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,10 +495,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -509,49 +509,49 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -560,49 +560,49 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
